--- a/assets/template-excel/template-ltdbb-g003.xlsx
+++ b/assets/template-excel/template-ltdbb-g003.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\reporting\assets\template-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19C28DC8-385B-4B9A-8E37-4EF5F02AF85A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56EE12C5-845E-45C5-9B7F-4E9B0FED7BCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-525" yWindow="1380" windowWidth="2400" windowHeight="585" xr2:uid="{887FD3BD-9FF4-4F2E-9B0A-4145E06D81BD}"/>
+    <workbookView xWindow="5400" yWindow="1785" windowWidth="21600" windowHeight="11385" xr2:uid="{887FD3BD-9FF4-4F2E-9B0A-4145E06D81BD}"/>
   </bookViews>
   <sheets>
     <sheet name="G003" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Transaksi Pengiriman Uang di dalam Wilayah Republik Indonesia</t>
   </si>
@@ -74,9 +74,6 @@
   </si>
   <si>
     <t>Nomor Form :</t>
-  </si>
-  <si>
-    <t>G0003</t>
   </si>
   <si>
     <t>Jumlah Record :</t>
@@ -285,14 +282,11 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
       <sheetData sheetId="4">
         <row r="2">
-          <cell r="Q2" t="str">
-            <v xml:space="preserve">AD-Andorra </v>
-          </cell>
           <cell r="AA2" t="str">
             <v xml:space="preserve">0102-Kab. Bekasi </v>
           </cell>
@@ -3231,8 +3225,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CEB28AF-3EC5-4325-9641-ADCE04D47A3E}">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3267,9 +3261,7 @@
       <c r="J2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="11" t="s">
-        <v>14</v>
-      </c>
+      <c r="K2" s="11"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
@@ -3282,17 +3274,17 @@
         <v>4</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" s="6"/>
       <c r="D4" s="7"/>
       <c r="J4" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K4" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
